--- a/SZMK/SZMK/bin/Debug/Templates/RegistryTemplate.xlsx
+++ b/SZMK/SZMK/bin/Debug/Templates/RegistryTemplate.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20353"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7945B05-8462-4D02-8EE6-26FAB0CCC611}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,14 +17,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Реестр чертежей</t>
   </si>
   <si>
-    <t>№ заказа</t>
-  </si>
-  <si>
     <t>Лист</t>
   </si>
   <si>
@@ -39,14 +37,20 @@
     <t>Вес без сварки</t>
   </si>
   <si>
-    <t>Дата</t>
+    <t>№Заказа покупателя</t>
+  </si>
+  <si>
+    <t>№ заказа на производство</t>
+  </si>
+  <si>
+    <t>Статус чертежа</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,14 +66,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -80,7 +76,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -95,16 +91,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -113,7 +109,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -121,15 +117,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -138,6 +129,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -184,7 +183,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -216,9 +215,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -250,6 +267,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -425,14 +460,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -441,45 +476,50 @@
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.85546875" customWidth="1"/>
     <col min="7" max="7" width="30.42578125" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39">
+    <row r="1" spans="1:8" ht="39" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -487,12 +527,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -500,12 +540,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
